--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H2">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.11238085195494</v>
+        <v>1.124414</v>
       </c>
       <c r="N2">
-        <v>1.11238085195494</v>
+        <v>2.248828</v>
       </c>
       <c r="O2">
-        <v>0.1174145446666237</v>
+        <v>0.1096545122942886</v>
       </c>
       <c r="P2">
-        <v>0.1174145446666237</v>
+        <v>0.08772804550878611</v>
       </c>
       <c r="Q2">
-        <v>0.5669437211548373</v>
+        <v>0.644360060082</v>
       </c>
       <c r="R2">
-        <v>0.5669437211548373</v>
+        <v>3.866160360492</v>
       </c>
       <c r="S2">
-        <v>0.1174145446666237</v>
+        <v>0.09582291642482094</v>
       </c>
       <c r="T2">
-        <v>0.1174145446666237</v>
+        <v>0.08002702435559104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H3">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.726797857638681</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N3">
-        <v>0.726797857638681</v>
+        <v>2.198273</v>
       </c>
       <c r="O3">
-        <v>0.07671530786362377</v>
+        <v>0.07145960879910269</v>
       </c>
       <c r="P3">
-        <v>0.07671530786362377</v>
+        <v>0.08575586651568541</v>
       </c>
       <c r="Q3">
-        <v>0.370424824566945</v>
+        <v>0.4199163067330001</v>
       </c>
       <c r="R3">
-        <v>0.370424824566945</v>
+        <v>3.779246760597</v>
       </c>
       <c r="S3">
-        <v>0.07671530786362377</v>
+        <v>0.0624458399243044</v>
       </c>
       <c r="T3">
-        <v>0.07671530786362377</v>
+        <v>0.07822796892925479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H4">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.553249493266279</v>
+        <v>0.9572023333333334</v>
       </c>
       <c r="N4">
-        <v>0.553249493266279</v>
+        <v>2.871607</v>
       </c>
       <c r="O4">
-        <v>0.05839684962640098</v>
+        <v>0.09334778384885083</v>
       </c>
       <c r="P4">
-        <v>0.05839684962640098</v>
+        <v>0.1120230046848175</v>
       </c>
       <c r="Q4">
-        <v>0.2819729644646184</v>
+        <v>0.5485372407470001</v>
       </c>
       <c r="R4">
-        <v>0.2819729644646184</v>
+        <v>4.936835166722999</v>
       </c>
       <c r="S4">
-        <v>0.05839684962640098</v>
+        <v>0.08157308534814008</v>
       </c>
       <c r="T4">
-        <v>0.05839684962640098</v>
+        <v>0.1021893018624304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H5">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.958431054229549</v>
+        <v>1.048287</v>
       </c>
       <c r="N5">
-        <v>0.958431054229549</v>
+        <v>3.144861</v>
       </c>
       <c r="O5">
-        <v>0.1011647635150709</v>
+        <v>0.1022304949328654</v>
       </c>
       <c r="P5">
-        <v>0.1011647635150709</v>
+        <v>0.1226827969621539</v>
       </c>
       <c r="Q5">
-        <v>0.4884806021249861</v>
+        <v>0.600734493081</v>
       </c>
       <c r="R5">
-        <v>0.4884806021249861</v>
+        <v>5.406610437728999</v>
       </c>
       <c r="S5">
-        <v>0.1011647635150709</v>
+        <v>0.08933534942665802</v>
       </c>
       <c r="T5">
-        <v>0.1011647635150709</v>
+        <v>0.1119133467930622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H6">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27013660713892</v>
+        <v>2.387532666666667</v>
       </c>
       <c r="N6">
-        <v>2.27013660713892</v>
+        <v>7.162598</v>
       </c>
       <c r="O6">
-        <v>0.2396185223701131</v>
+        <v>0.2328357083334214</v>
       </c>
       <c r="P6">
-        <v>0.2396185223701131</v>
+        <v>0.2794169777791545</v>
       </c>
       <c r="Q6">
-        <v>1.157013529421388</v>
+        <v>1.368206632558</v>
       </c>
       <c r="R6">
-        <v>1.157013529421388</v>
+        <v>12.313859693022</v>
       </c>
       <c r="S6">
-        <v>0.2396185223701131</v>
+        <v>0.2034662883773502</v>
       </c>
       <c r="T6">
-        <v>0.2396185223701131</v>
+        <v>0.2548889486413846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.573063</v>
+      </c>
+      <c r="H7">
+        <v>1.719189</v>
+      </c>
+      <c r="I7">
+        <v>0.8738620456188184</v>
+      </c>
+      <c r="J7">
+        <v>0.9122171124577967</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.003958</v>
+      </c>
+      <c r="N7">
+        <v>8.007916</v>
+      </c>
+      <c r="O7">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P7">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q7">
+        <v>2.294520183354</v>
+      </c>
+      <c r="R7">
+        <v>13.767121100124</v>
+      </c>
+      <c r="S7">
+        <v>0.3412185661175449</v>
+      </c>
+      <c r="T7">
+        <v>0.2849705218760737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.082719</v>
+      </c>
+      <c r="H8">
+        <v>0.165438</v>
+      </c>
+      <c r="I8">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J8">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.124414</v>
+      </c>
+      <c r="N8">
+        <v>2.248828</v>
+      </c>
+      <c r="O8">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P8">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q8">
+        <v>0.093010401666</v>
+      </c>
+      <c r="R8">
+        <v>0.372041606664</v>
+      </c>
+      <c r="S8">
+        <v>0.01383159586946769</v>
+      </c>
+      <c r="T8">
+        <v>0.007701021153195066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.082719</v>
+      </c>
+      <c r="H9">
+        <v>0.165438</v>
+      </c>
+      <c r="I9">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J9">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N9">
+        <v>2.198273</v>
+      </c>
+      <c r="O9">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P9">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q9">
+        <v>0.06061298142900001</v>
+      </c>
+      <c r="R9">
+        <v>0.3636778885740001</v>
+      </c>
+      <c r="S9">
+        <v>0.009013768874798296</v>
+      </c>
+      <c r="T9">
+        <v>0.007527897586430611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.082719</v>
+      </c>
+      <c r="H10">
+        <v>0.165438</v>
+      </c>
+      <c r="I10">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J10">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.871607</v>
+      </c>
+      <c r="O10">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P10">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q10">
+        <v>0.079178819811</v>
+      </c>
+      <c r="R10">
+        <v>0.475072918866</v>
+      </c>
+      <c r="S10">
+        <v>0.01177469850071074</v>
+      </c>
+      <c r="T10">
+        <v>0.009833702822387049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.082719</v>
+      </c>
+      <c r="H11">
+        <v>0.165438</v>
+      </c>
+      <c r="I11">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J11">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.048287</v>
+      </c>
+      <c r="N11">
+        <v>3.144861</v>
+      </c>
+      <c r="O11">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P11">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q11">
+        <v>0.08671325235299999</v>
+      </c>
+      <c r="R11">
+        <v>0.520279514118</v>
+      </c>
+      <c r="S11">
+        <v>0.01289514550620739</v>
+      </c>
+      <c r="T11">
+        <v>0.01076945016909171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.509666918626358</v>
-      </c>
-      <c r="H7">
-        <v>0.509666918626358</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="N7">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="O7">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="P7">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="Q7">
-        <v>1.963729020035204</v>
-      </c>
-      <c r="R7">
-        <v>1.963729020035204</v>
-      </c>
-      <c r="S7">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="T7">
-        <v>0.4066900119581674</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.082719</v>
+      </c>
+      <c r="H12">
+        <v>0.165438</v>
+      </c>
+      <c r="I12">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J12">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.162598</v>
+      </c>
+      <c r="O12">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P12">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q12">
+        <v>0.197494314654</v>
+      </c>
+      <c r="R12">
+        <v>1.184965887924</v>
+      </c>
+      <c r="S12">
+        <v>0.0293694199560712</v>
+      </c>
+      <c r="T12">
+        <v>0.02452802913776984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.082719</v>
+      </c>
+      <c r="H13">
+        <v>0.165438</v>
+      </c>
+      <c r="I13">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J13">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.003958</v>
+      </c>
+      <c r="N13">
+        <v>8.007916</v>
+      </c>
+      <c r="O13">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P13">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q13">
+        <v>0.331203401802</v>
+      </c>
+      <c r="R13">
+        <v>1.324813607208</v>
+      </c>
+      <c r="S13">
+        <v>0.04925332567392626</v>
+      </c>
+      <c r="T13">
+        <v>0.02742278667332905</v>
       </c>
     </row>
   </sheetData>
